--- a/SysCall-BackEnd/Documentações/Permissoes - SysCall.xlsx
+++ b/SysCall-BackEnd/Documentações/Permissoes - SysCall.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rapha\Desktop\SysCall\SysCall-BackEnd\Tabela de Permissões\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsilva\Desktop\Syscall\SysCall-BackEnd\Documentações\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8381FB83-CAB5-4F44-AD1C-0D77A36A6812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11040"/>
+    <workbookView xWindow="-2040" yWindow="-13620" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Permissões" sheetId="1" r:id="rId1"/>
@@ -20,28 +21,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Raphael Silva</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -92,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -117,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -147,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="50">
   <si>
     <t>CAMPOS</t>
   </si>
@@ -221,39 +211,12 @@
     <t>Permissões de Execução</t>
   </si>
   <si>
-    <t>Nome da função</t>
-  </si>
-  <si>
     <t>Usuário</t>
   </si>
   <si>
     <t>Criado por</t>
   </si>
   <si>
-    <t>viewProfile()</t>
-  </si>
-  <si>
-    <t>sigIn()</t>
-  </si>
-  <si>
-    <t>editProfile()</t>
-  </si>
-  <si>
-    <t>deleteProfile()</t>
-  </si>
-  <si>
-    <t>createContact()</t>
-  </si>
-  <si>
-    <t>viewContact()</t>
-  </si>
-  <si>
-    <t>editContact()</t>
-  </si>
-  <si>
-    <t>deleteContact()</t>
-  </si>
-  <si>
     <t>viewCallHistory()</t>
   </si>
   <si>
@@ -282,13 +245,55 @@
   </si>
   <si>
     <t>requester_user</t>
+  </si>
+  <si>
+    <t>sys_call.view_insert_function_t_call_user_r_sys_usr()</t>
+  </si>
+  <si>
+    <t>usr</t>
+  </si>
+  <si>
+    <t>sys_usr</t>
+  </si>
+  <si>
+    <t>sys_reg_usr</t>
+  </si>
+  <si>
+    <t>reg_usr</t>
+  </si>
+  <si>
+    <t>sys_call.function_select_all_t_call_user_r_sys_reg_usr()</t>
+  </si>
+  <si>
+    <t>sys_call.function_login_t_call_user_r_sys_usr()</t>
+  </si>
+  <si>
+    <t>sys_call.view_update_function_t_call_user_r_sys_reg_usr()</t>
+  </si>
+  <si>
+    <t>sys_call.procedure_delete_t_call_user_r_sys_reg_usr()</t>
+  </si>
+  <si>
+    <t>sys_call.view_insert_function_t_contact_r_sys_reg_usr()</t>
+  </si>
+  <si>
+    <t>sys_call.function_select_t_contact_r_sys_reg_usr()</t>
+  </si>
+  <si>
+    <t>sys_call.view_update_function_t_contact_r_sys_reg_usr()</t>
+  </si>
+  <si>
+    <t>sys_call.procedure_delete_t_contact_r_sys_reg_usr()</t>
+  </si>
+  <si>
+    <t>Nome da função/procedure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,7 +339,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="66">
+  <borders count="70">
     <border>
       <left/>
       <right/>
@@ -1171,11 +1176,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1219,34 +1272,180 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1271,57 +1470,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1337,76 +1494,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1422,10 +1509,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1744,89 +1827,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="55" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="15" customHeight="1"/>
-    <row r="3" spans="2:15" ht="15.75" customHeight="1"/>
-    <row r="4" spans="2:15" ht="15" customHeight="1"/>
-    <row r="5" spans="2:15" ht="15.75" customHeight="1"/>
-    <row r="10" spans="2:15" ht="15.75" thickBot="1"/>
-    <row r="11" spans="2:15" ht="15" customHeight="1">
-      <c r="B11" s="46" t="s">
+    <row r="2" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="48"/>
-      <c r="M11" s="52" t="s">
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="65"/>
+      <c r="M11" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="N11" s="53"/>
-      <c r="O11" s="54"/>
-    </row>
-    <row r="12" spans="2:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B12" s="49"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="51"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="57"/>
-    </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="32" t="s">
+      <c r="N11" s="70"/>
+      <c r="O11" s="71"/>
+    </row>
+    <row r="12" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="66"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="68"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="74"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="34" t="s">
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="36"/>
-      <c r="M13" s="25" t="s">
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="82"/>
+      <c r="M13" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="N13" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="16" t="s">
+      <c r="O13" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="O13" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" ht="14.4" thickBot="1">
-      <c r="B14" s="33"/>
+    </row>
+    <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="79"/>
       <c r="C14" s="1" t="s">
         <v>1</v>
       </c>
@@ -1851,45 +1934,45 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="18"/>
-      <c r="M14" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="N14" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="O14" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15">
+      <c r="L14" s="16"/>
+      <c r="M14" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="N14" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="O14" s="42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="29"/>
+      <c r="F15" s="75"/>
       <c r="G15" s="5"/>
       <c r="H15" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I15" s="7"/>
-      <c r="J15" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="L15" s="18"/>
-      <c r="M15" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="N15" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="O15" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15">
+      <c r="J15" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="16"/>
+      <c r="M15" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="O15" s="45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>11</v>
       </c>
@@ -1898,7 +1981,7 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
-      <c r="F16" s="30"/>
+      <c r="F16" s="76"/>
       <c r="G16" s="12"/>
       <c r="H16" s="13" t="s">
         <v>6</v>
@@ -1906,19 +1989,19 @@
       <c r="I16" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="30"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="N16" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="O16" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" ht="14.4" thickBot="1">
+      <c r="J16" s="76"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="O16" s="42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
@@ -1927,7 +2010,7 @@
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="30"/>
+      <c r="F17" s="76"/>
       <c r="G17" s="5"/>
       <c r="H17" s="6" t="s">
         <v>6</v>
@@ -1935,27 +2018,27 @@
       <c r="I17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="30"/>
-      <c r="M17" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="N17" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="O17" s="24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15">
+      <c r="J17" s="76"/>
+      <c r="M17" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="N17" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="O17" s="42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="30"/>
+      <c r="F18" s="76"/>
       <c r="G18" s="5"/>
       <c r="H18" s="6" t="s">
         <v>6</v>
@@ -1963,9 +2046,18 @@
       <c r="I18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J18" s="30"/>
-    </row>
-    <row r="19" spans="2:15">
+      <c r="J18" s="76"/>
+      <c r="M18" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="N18" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="O18" s="48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>13</v>
       </c>
@@ -1976,7 +2068,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="7"/>
-      <c r="F19" s="30"/>
+      <c r="F19" s="76"/>
       <c r="G19" s="5"/>
       <c r="H19" s="6" t="s">
         <v>6</v>
@@ -1984,11 +2076,11 @@
       <c r="I19" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J19" s="30"/>
-    </row>
-    <row r="20" spans="2:15">
+      <c r="J19" s="76"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>6</v>
@@ -1997,7 +2089,7 @@
         <v>6</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="F20" s="30"/>
+      <c r="F20" s="76"/>
       <c r="G20" s="5"/>
       <c r="H20" s="6" t="s">
         <v>6</v>
@@ -2005,9 +2097,9 @@
       <c r="I20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="30"/>
-    </row>
-    <row r="21" spans="2:15">
+      <c r="J20" s="76"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>14</v>
       </c>
@@ -2016,7 +2108,7 @@
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="30"/>
+      <c r="F21" s="76"/>
       <c r="G21" s="5"/>
       <c r="H21" s="6" t="s">
         <v>6</v>
@@ -2024,87 +2116,87 @@
       <c r="I21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J21" s="30"/>
-    </row>
-    <row r="22" spans="2:15" ht="14.4" thickBot="1">
+      <c r="J21" s="76"/>
+    </row>
+    <row r="22" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="31"/>
+      <c r="F22" s="77"/>
       <c r="G22" s="9"/>
       <c r="H22" s="10" t="s">
         <v>6</v>
       </c>
       <c r="I22" s="11"/>
-      <c r="J22" s="31"/>
-    </row>
-    <row r="25" spans="2:15" ht="15.75" thickBot="1"/>
-    <row r="26" spans="2:15" ht="15" customHeight="1">
-      <c r="B26" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="48"/>
-      <c r="M26" s="52" t="s">
+      <c r="J22" s="77"/>
+    </row>
+    <row r="25" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="65"/>
+      <c r="M26" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="N26" s="53"/>
-      <c r="O26" s="54"/>
-    </row>
-    <row r="27" spans="2:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="51"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="57"/>
-    </row>
-    <row r="28" spans="2:15">
-      <c r="B28" s="32" t="s">
+      <c r="N26" s="70"/>
+      <c r="O26" s="71"/>
+    </row>
+    <row r="27" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="66"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="68"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="74"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="34" t="s">
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="36"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="19" t="s">
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="82"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="N28" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="N28" s="16" t="s">
+      <c r="O28" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="O28" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" ht="14.4" thickBot="1">
-      <c r="B29" s="33"/>
+    </row>
+    <row r="29" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="79"/>
       <c r="C29" s="1" t="s">
         <v>1</v>
       </c>
@@ -2129,54 +2221,54 @@
       <c r="J29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L29" s="18"/>
-      <c r="M29" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="N29" s="15" t="s">
+      <c r="L29" s="16"/>
+      <c r="M29" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="N29" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="O29" s="21" t="s">
+      <c r="O29" s="42" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="39"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="85"/>
       <c r="G30" s="5"/>
       <c r="H30" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I30" s="7"/>
-      <c r="J30" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="L30" s="18"/>
-      <c r="M30" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="N30" s="15" t="s">
+      <c r="J30" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="L30" s="16"/>
+      <c r="M30" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="N30" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="O30" s="21" t="s">
+      <c r="O30" s="42" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="42"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="87"/>
       <c r="G31" s="12" t="s">
         <v>6</v>
       </c>
@@ -2186,26 +2278,26 @@
       <c r="I31" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J31" s="30"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N31" s="15" t="s">
+      <c r="J31" s="76"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="N31" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="O31" s="21" t="s">
+      <c r="O31" s="42" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="2:15" ht="14.4" thickBot="1">
+    <row r="32" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="42"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="87"/>
       <c r="G32" s="5" t="s">
         <v>9</v>
       </c>
@@ -2215,26 +2307,26 @@
       <c r="I32" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J32" s="30"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="N32" s="23" t="s">
+      <c r="J32" s="76"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="N32" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="O32" s="24" t="s">
+      <c r="O32" s="48" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="40"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="42"/>
+        <v>31</v>
+      </c>
+      <c r="C33" s="86"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="87"/>
       <c r="G33" s="5" t="s">
         <v>7</v>
       </c>
@@ -2242,16 +2334,16 @@
         <v>6</v>
       </c>
       <c r="I33" s="7"/>
-      <c r="J33" s="30"/>
-    </row>
-    <row r="34" spans="2:15" ht="14.4" thickBot="1">
+      <c r="J33" s="76"/>
+    </row>
+    <row r="34" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="43"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="45"/>
+        <v>32</v>
+      </c>
+      <c r="C34" s="88"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="89"/>
       <c r="G34" s="9" t="s">
         <v>7</v>
       </c>
@@ -2259,79 +2351,79 @@
         <v>6</v>
       </c>
       <c r="I34" s="10"/>
-      <c r="J34" s="31"/>
-    </row>
-    <row r="37" spans="2:15" ht="14.4" thickBot="1"/>
-    <row r="38" spans="2:15" ht="15" customHeight="1">
-      <c r="B38" s="46" t="s">
+      <c r="J34" s="77"/>
+    </row>
+    <row r="37" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="48"/>
-      <c r="M38" s="52" t="s">
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="65"/>
+      <c r="M38" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="N38" s="53"/>
-      <c r="O38" s="54"/>
-    </row>
-    <row r="39" spans="2:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B39" s="49"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="51"/>
-      <c r="M39" s="55"/>
-      <c r="N39" s="56"/>
-      <c r="O39" s="57"/>
-    </row>
-    <row r="40" spans="2:15" ht="14.4" customHeight="1">
-      <c r="B40" s="58" t="s">
+      <c r="N38" s="70"/>
+      <c r="O38" s="71"/>
+    </row>
+    <row r="39" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="66"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="68"/>
+      <c r="M39" s="72"/>
+      <c r="N39" s="73"/>
+      <c r="O39" s="74"/>
+    </row>
+    <row r="40" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="60" t="s">
+      <c r="C40" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="60" t="s">
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="H40" s="61"/>
-      <c r="I40" s="61"/>
-      <c r="J40" s="62"/>
-      <c r="M40" s="25" t="s">
+      <c r="H40" s="93"/>
+      <c r="I40" s="93"/>
+      <c r="J40" s="94"/>
+      <c r="M40" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="N40" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="N40" s="16" t="s">
+      <c r="O40" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="O40" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="2:15" ht="14.4" thickBot="1">
-      <c r="B41" s="59"/>
-      <c r="C41" s="74" t="s">
+    </row>
+    <row r="41" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="91"/>
+      <c r="C41" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="75" t="s">
+      <c r="D41" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E41" s="75" t="s">
+      <c r="E41" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F41" s="76" t="s">
+      <c r="F41" s="32" t="s">
         <v>4</v>
       </c>
       <c r="G41" s="1" t="s">
@@ -2346,117 +2438,117 @@
       <c r="J41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M41" s="22" t="s">
+      <c r="M41" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N41" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="O41" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42" s="26"/>
+      <c r="J42" s="62"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="56"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I43" s="27"/>
+      <c r="J43" s="58"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="56"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I44" s="35"/>
+      <c r="J44" s="58"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="56"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I45" s="36"/>
+      <c r="J45" s="58"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="56"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I46" s="35"/>
+      <c r="J46" s="58"/>
+    </row>
+    <row r="47" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="N41" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="O41" s="24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15">
-      <c r="B42" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="78"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I42" s="70"/>
-      <c r="J42" s="64"/>
-    </row>
-    <row r="43" spans="2:15">
-      <c r="B43" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="80"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="73" t="s">
+      <c r="C47" s="59"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="H43" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I43" s="71"/>
-      <c r="J43" s="65"/>
-    </row>
-    <row r="44" spans="2:15">
-      <c r="B44" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" s="80"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I44" s="85"/>
-      <c r="J44" s="65"/>
-    </row>
-    <row r="45" spans="2:15">
-      <c r="B45" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" s="80"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="83" t="s">
-        <v>7</v>
-      </c>
-      <c r="H45" s="84" t="s">
-        <v>6</v>
-      </c>
-      <c r="I45" s="86"/>
-      <c r="J45" s="65"/>
-    </row>
-    <row r="46" spans="2:15">
-      <c r="B46" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="80"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I46" s="85"/>
-      <c r="J46" s="65"/>
-    </row>
-    <row r="47" spans="2:15" ht="14.4" thickBot="1">
-      <c r="B47" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="81"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="68" t="s">
-        <v>7</v>
-      </c>
       <c r="H47" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I47" s="69"/>
-      <c r="J47" s="66"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -2487,36 +2579,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C3:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" ht="15.75" thickBot="1"/>
-    <row r="4" spans="3:3" ht="15.75" thickBot="1">
-      <c r="C4" s="27" t="s">
+    <row r="3" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="3:3" ht="15.75" thickBot="1">
-      <c r="C5" s="27" t="s">
+    <row r="5" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="3:3" ht="15.75" thickBot="1">
-      <c r="C6" s="27" t="s">
+    <row r="6" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="3:3" ht="15.75" thickBot="1">
-      <c r="C7" s="27" t="s">
+    <row r="7" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2527,6 +2619,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BDF39B024F04A14486BA613BEA42AFF1" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="48c91588e4c96d3b87372e2739b705e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="87289aac-3191-415d-94b6-004c2ae78a31" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0362d00d4c3829c3077b766beca3d16d" ns3:_="">
     <xsd:import namespace="87289aac-3191-415d-94b6-004c2ae78a31"/>
@@ -2670,22 +2777,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07C76C7B-EB59-4D89-AA80-0396BEA98F7A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4483016-B552-4E7C-98FD-60950CE40536}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="87289aac-3191-415d-94b6-004c2ae78a31"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7292E6ED-0A31-46EE-9FF6-8B1FBA9D03F1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2701,28 +2817,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07C76C7B-EB59-4D89-AA80-0396BEA98F7A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4483016-B552-4E7C-98FD-60950CE40536}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="87289aac-3191-415d-94b6-004c2ae78a31"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SysCall-BackEnd/Documentações/Permissoes - SysCall.xlsx
+++ b/SysCall-BackEnd/Documentações/Permissoes - SysCall.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsilva\Desktop\Syscall\SysCall-BackEnd\Documentações\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rapha\Desktop\SysCall\SysCall-BackEnd\Documentações\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8381FB83-CAB5-4F44-AD1C-0D77A36A6812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2040" yWindow="-13620" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2040" yWindow="-13620" windowWidth="24240" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Permissões" sheetId="1" r:id="rId1"/>
@@ -26,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Raphael Silva</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="C4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="C5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="C6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -217,9 +216,6 @@
     <t>Criado por</t>
   </si>
   <si>
-    <t>viewCallHistory()</t>
-  </si>
-  <si>
     <t>phone_number</t>
   </si>
   <si>
@@ -287,13 +283,16 @@
   </si>
   <si>
     <t>Nome da função/procedure</t>
+  </si>
+  <si>
+    <t>sys_call.function_select_t_call_history_r_sys_reg_usr()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1228,7 +1227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1368,6 +1367,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1398,42 +1448,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1479,21 +1493,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1827,79 +1827,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.59765625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="55" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="63" t="s">
+    <row r="2" spans="2:15" ht="15" customHeight="1"/>
+    <row r="3" spans="2:15" ht="15.75" customHeight="1"/>
+    <row r="4" spans="2:15" ht="15" customHeight="1"/>
+    <row r="5" spans="2:15" ht="15.75" customHeight="1"/>
+    <row r="10" spans="2:15" ht="15.75" thickBot="1"/>
+    <row r="11" spans="2:15" ht="15" customHeight="1">
+      <c r="B11" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="65"/>
-      <c r="M11" s="69" t="s">
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="55"/>
+      <c r="M11" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="N11" s="70"/>
-      <c r="O11" s="71"/>
-    </row>
-    <row r="12" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="66"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="68"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="74"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="78" t="s">
+      <c r="N11" s="65"/>
+      <c r="O11" s="66"/>
+    </row>
+    <row r="12" spans="2:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="58"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="69"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="80" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="82"/>
+      <c r="C13" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="87"/>
       <c r="M13" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N13" s="38" t="s">
         <v>24</v>
@@ -1908,8 +1908,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="79"/>
+    <row r="14" spans="2:15" ht="14.4" thickBot="1">
+      <c r="B14" s="84"/>
       <c r="C14" s="1" t="s">
         <v>1</v>
       </c>
@@ -1936,43 +1936,43 @@
       </c>
       <c r="L14" s="16"/>
       <c r="M14" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="N14" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="N14" s="41" t="s">
+      <c r="O14" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="O14" s="42" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:15">
       <c r="B15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="75"/>
+      <c r="F15" s="80"/>
       <c r="G15" s="5"/>
       <c r="H15" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I15" s="7"/>
-      <c r="J15" s="75" t="s">
+      <c r="J15" s="80" t="s">
         <v>6</v>
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N15" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="O15" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="O15" s="45" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:15">
       <c r="B16" s="14" t="s">
         <v>11</v>
       </c>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
-      <c r="F16" s="76"/>
+      <c r="F16" s="81"/>
       <c r="G16" s="12"/>
       <c r="H16" s="13" t="s">
         <v>6</v>
@@ -1989,19 +1989,19 @@
       <c r="I16" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="76"/>
+      <c r="J16" s="81"/>
       <c r="L16" s="16"/>
       <c r="M16" s="40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N16" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O16" s="42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15">
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="76"/>
+      <c r="F17" s="81"/>
       <c r="G17" s="5"/>
       <c r="H17" s="6" t="s">
         <v>6</v>
@@ -2018,27 +2018,27 @@
       <c r="I17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="76"/>
+      <c r="J17" s="81"/>
       <c r="M17" s="40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N17" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O17" s="42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="14.4" thickBot="1">
       <c r="B18" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="76"/>
+      <c r="F18" s="81"/>
       <c r="G18" s="5"/>
       <c r="H18" s="6" t="s">
         <v>6</v>
@@ -2046,18 +2046,18 @@
       <c r="I18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J18" s="76"/>
+      <c r="J18" s="81"/>
       <c r="M18" s="46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N18" s="47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O18" s="48" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15">
       <c r="B19" s="4" t="s">
         <v>13</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="7"/>
-      <c r="F19" s="76"/>
+      <c r="F19" s="81"/>
       <c r="G19" s="5"/>
       <c r="H19" s="6" t="s">
         <v>6</v>
@@ -2076,11 +2076,11 @@
       <c r="I19" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J19" s="76"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J19" s="81"/>
+    </row>
+    <row r="20" spans="2:15">
       <c r="B20" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>6</v>
@@ -2089,7 +2089,7 @@
         <v>6</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="F20" s="76"/>
+      <c r="F20" s="81"/>
       <c r="G20" s="5"/>
       <c r="H20" s="6" t="s">
         <v>6</v>
@@ -2097,9 +2097,9 @@
       <c r="I20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="76"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J20" s="81"/>
+    </row>
+    <row r="21" spans="2:15">
       <c r="B21" s="4" t="s">
         <v>14</v>
       </c>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="76"/>
+      <c r="F21" s="81"/>
       <c r="G21" s="5"/>
       <c r="H21" s="6" t="s">
         <v>6</v>
@@ -2116,77 +2116,77 @@
       <c r="I21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J21" s="76"/>
-    </row>
-    <row r="22" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J21" s="81"/>
+    </row>
+    <row r="22" spans="2:15" ht="14.4" thickBot="1">
       <c r="B22" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="77"/>
+      <c r="F22" s="82"/>
       <c r="G22" s="9"/>
       <c r="H22" s="10" t="s">
         <v>6</v>
       </c>
       <c r="I22" s="11"/>
-      <c r="J22" s="77"/>
-    </row>
-    <row r="25" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="65"/>
-      <c r="M26" s="69" t="s">
+      <c r="J22" s="82"/>
+    </row>
+    <row r="25" spans="2:15" ht="15.75" thickBot="1"/>
+    <row r="26" spans="2:15" ht="15" customHeight="1">
+      <c r="B26" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="55"/>
+      <c r="M26" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="N26" s="70"/>
-      <c r="O26" s="71"/>
-    </row>
-    <row r="27" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="66"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="68"/>
-      <c r="M27" s="72"/>
-      <c r="N27" s="73"/>
-      <c r="O27" s="74"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="78" t="s">
+      <c r="N26" s="65"/>
+      <c r="O26" s="66"/>
+    </row>
+    <row r="27" spans="2:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B27" s="56"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="58"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="69"/>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="80" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="82"/>
+      <c r="C28" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="86"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="87"/>
       <c r="L28" s="16"/>
       <c r="M28" s="49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N28" s="38" t="s">
         <v>24</v>
@@ -2195,8 +2195,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="79"/>
+    <row r="29" spans="2:15" ht="14.4" thickBot="1">
+      <c r="B29" s="84"/>
       <c r="C29" s="1" t="s">
         <v>1</v>
       </c>
@@ -2223,52 +2223,52 @@
       </c>
       <c r="L29" s="16"/>
       <c r="M29" s="50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N29" s="51" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="O29" s="42" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15">
       <c r="B30" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="83" t="s">
+      <c r="C30" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="85"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="90"/>
       <c r="G30" s="5"/>
       <c r="H30" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I30" s="7"/>
-      <c r="J30" s="75" t="s">
+      <c r="J30" s="80" t="s">
         <v>6</v>
       </c>
       <c r="L30" s="16"/>
       <c r="M30" s="50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N30" s="51" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="O30" s="42" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15">
       <c r="B31" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="86"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="87"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="92"/>
       <c r="G31" s="12" t="s">
         <v>6</v>
       </c>
@@ -2278,26 +2278,26 @@
       <c r="I31" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J31" s="76"/>
+      <c r="J31" s="81"/>
       <c r="L31" s="16"/>
       <c r="M31" s="50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N31" s="51" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="O31" s="42" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" ht="14.4" thickBot="1">
       <c r="B32" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="86"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="87"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="92"/>
       <c r="G32" s="5" t="s">
         <v>9</v>
       </c>
@@ -2307,26 +2307,26 @@
       <c r="I32" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J32" s="76"/>
+      <c r="J32" s="81"/>
       <c r="L32" s="16"/>
       <c r="M32" s="52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N32" s="47" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="O32" s="48" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15">
       <c r="B33" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="86"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="87"/>
+        <v>30</v>
+      </c>
+      <c r="C33" s="91"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="92"/>
       <c r="G33" s="5" t="s">
         <v>7</v>
       </c>
@@ -2334,16 +2334,16 @@
         <v>6</v>
       </c>
       <c r="I33" s="7"/>
-      <c r="J33" s="76"/>
-    </row>
-    <row r="34" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J33" s="81"/>
+    </row>
+    <row r="34" spans="2:15" ht="14.4" thickBot="1">
       <c r="B34" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="88"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="89"/>
+        <v>31</v>
+      </c>
+      <c r="C34" s="93"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="94"/>
       <c r="G34" s="9" t="s">
         <v>7</v>
       </c>
@@ -2351,59 +2351,61 @@
         <v>6</v>
       </c>
       <c r="I34" s="10"/>
-      <c r="J34" s="77"/>
-    </row>
-    <row r="37" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="63" t="s">
+      <c r="J34" s="82"/>
+    </row>
+    <row r="37" spans="2:15" ht="14.4" thickBot="1">
+      <c r="H37" s="95"/>
+    </row>
+    <row r="38" spans="2:15" ht="15" customHeight="1">
+      <c r="B38" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="64"/>
-      <c r="I38" s="64"/>
-      <c r="J38" s="65"/>
-      <c r="M38" s="69" t="s">
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="55"/>
+      <c r="M38" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="N38" s="70"/>
-      <c r="O38" s="71"/>
-    </row>
-    <row r="39" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="66"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="68"/>
-      <c r="M39" s="72"/>
-      <c r="N39" s="73"/>
-      <c r="O39" s="74"/>
-    </row>
-    <row r="40" spans="2:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="90" t="s">
+      <c r="N38" s="65"/>
+      <c r="O38" s="66"/>
+    </row>
+    <row r="39" spans="2:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B39" s="56"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="58"/>
+      <c r="M39" s="67"/>
+      <c r="N39" s="68"/>
+      <c r="O39" s="69"/>
+    </row>
+    <row r="40" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B40" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="92" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="93"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="94"/>
-      <c r="G40" s="92" t="s">
-        <v>18</v>
-      </c>
-      <c r="H40" s="93"/>
-      <c r="I40" s="93"/>
-      <c r="J40" s="94"/>
+      <c r="C40" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="63"/>
       <c r="M40" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N40" s="15" t="s">
         <v>24</v>
@@ -2412,8 +2414,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="91"/>
+    <row r="41" spans="2:15" ht="14.4" thickBot="1">
+      <c r="B41" s="60"/>
       <c r="C41" s="30" t="s">
         <v>1</v>
       </c>
@@ -2439,40 +2441,40 @@
         <v>4</v>
       </c>
       <c r="M41" s="18" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="N41" s="19" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="O41" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15">
       <c r="B42" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="53" t="s">
+      <c r="C42" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="55"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="72"/>
       <c r="G42" s="23"/>
       <c r="H42" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I42" s="26"/>
-      <c r="J42" s="62"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J42" s="79"/>
+    </row>
+    <row r="43" spans="2:15">
       <c r="B43" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="56"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="58"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="75"/>
       <c r="G43" s="29" t="s">
         <v>7</v>
       </c>
@@ -2480,16 +2482,16 @@
         <v>6</v>
       </c>
       <c r="I43" s="27"/>
-      <c r="J43" s="58"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J43" s="75"/>
+    </row>
+    <row r="44" spans="2:15">
       <c r="B44" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="56"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="58"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="75"/>
       <c r="G44" s="23" t="s">
         <v>9</v>
       </c>
@@ -2497,16 +2499,16 @@
         <v>6</v>
       </c>
       <c r="I44" s="35"/>
-      <c r="J44" s="58"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J44" s="75"/>
+    </row>
+    <row r="45" spans="2:15">
       <c r="B45" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" s="56"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="58"/>
+        <v>32</v>
+      </c>
+      <c r="C45" s="73"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="75"/>
       <c r="G45" s="34" t="s">
         <v>7</v>
       </c>
@@ -2514,16 +2516,16 @@
         <v>6</v>
       </c>
       <c r="I45" s="36"/>
-      <c r="J45" s="58"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J45" s="75"/>
+    </row>
+    <row r="46" spans="2:15">
       <c r="B46" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" s="56"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="58"/>
+        <v>33</v>
+      </c>
+      <c r="C46" s="73"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="75"/>
       <c r="G46" s="23" t="s">
         <v>7</v>
       </c>
@@ -2531,16 +2533,16 @@
         <v>6</v>
       </c>
       <c r="I46" s="35"/>
-      <c r="J46" s="58"/>
-    </row>
-    <row r="47" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J46" s="75"/>
+    </row>
+    <row r="47" spans="2:15" ht="14.4" thickBot="1">
       <c r="B47" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="59"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="61"/>
+        <v>34</v>
+      </c>
+      <c r="C47" s="76"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="78"/>
       <c r="G47" s="24" t="s">
         <v>7</v>
       </c>
@@ -2548,15 +2550,10 @@
         <v>6</v>
       </c>
       <c r="I47" s="25"/>
-      <c r="J47" s="61"/>
+      <c r="J47" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B38:J39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="M38:O39"/>
     <mergeCell ref="C42:F47"/>
     <mergeCell ref="J42:J47"/>
     <mergeCell ref="B11:J12"/>
@@ -2573,41 +2570,46 @@
     <mergeCell ref="J15:J22"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:F13"/>
+    <mergeCell ref="B38:J39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="M38:O39"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:3" ht="15.75" thickBot="1"/>
+    <row r="4" spans="3:3" ht="15.75" thickBot="1">
       <c r="C4" s="22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:3" ht="15.75" thickBot="1">
       <c r="C5" s="22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:3" ht="15.75" thickBot="1">
       <c r="C6" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:3" ht="15.75" thickBot="1">
       <c r="C7" s="22" t="s">
         <v>18</v>
       </c>
@@ -2628,12 +2630,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BDF39B024F04A14486BA613BEA42AFF1" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="48c91588e4c96d3b87372e2739b705e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="87289aac-3191-415d-94b6-004c2ae78a31" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0362d00d4c3829c3077b766beca3d16d" ns3:_="">
     <xsd:import namespace="87289aac-3191-415d-94b6-004c2ae78a31"/>
@@ -2777,6 +2773,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07C76C7B-EB59-4D89-AA80-0396BEA98F7A}">
   <ds:schemaRefs>
@@ -2786,22 +2788,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4483016-B552-4E7C-98FD-60950CE40536}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="87289aac-3191-415d-94b6-004c2ae78a31"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7292E6ED-0A31-46EE-9FF6-8B1FBA9D03F1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2817,4 +2803,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4483016-B552-4E7C-98FD-60950CE40536}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="87289aac-3191-415d-94b6-004c2ae78a31"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>